--- a/data/raw/mb-fn-schools.xlsx
+++ b/data/raw/mb-fn-schools.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://validuseconomicscom.sharepoint.com/sites/WaapihkResearch/Shared Documents/General/Client &amp; Project Folders/AMC/Education/REA/Enhancements/Remoteness/Nishnawbe Aski Nation Remoteness Approach for AMC/sources/R/nan_remoteness/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="8_{2E38496B-A6C5-4D48-8977-F4C5FF36D6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3D196BC-EF00-2A48-91E3-1C306B1876FA}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="8_{2E38496B-A6C5-4D48-8977-F4C5FF36D6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D047541A-94E3-9343-A296-B7B9DDD6AF27}"/>
   <bookViews>
-    <workbookView xWindow="38420" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{8FD1AABC-4D81-4F42-B34E-0B5B1EDE46E4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{8FD1AABC-4D81-4F42-B34E-0B5B1EDE46E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="131">
   <si>
     <t>First Nation</t>
   </si>
@@ -80,9 +80,6 @@
     <t>7-12</t>
   </si>
   <si>
-    <t>n-6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Canupawakpa Dakota Nation </t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t xml:space="preserve">Otter Nelson River School </t>
   </si>
   <si>
-    <t>n-7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dakota Plains Wahpeton Nation </t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t xml:space="preserve">Fox Lake Native Spiritual School </t>
   </si>
   <si>
-    <t>n-8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Garden Hill First Nation </t>
   </si>
   <si>
@@ -230,9 +221,6 @@
     <t xml:space="preserve">Sakastew School </t>
   </si>
   <si>
-    <t>k-12</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nisichawayasihk Cree Nation </t>
   </si>
   <si>
@@ -251,15 +239,9 @@
     <t xml:space="preserve">Petit Casimir Memorial School </t>
   </si>
   <si>
-    <t xml:space="preserve">O-Chi-Chak-Ko-Sipi First Nation (Crane River) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Donald Ahmo School </t>
   </si>
   <si>
-    <t>k-8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Opaskwayak Cree Nation </t>
   </si>
   <si>
@@ -275,18 +257,12 @@
     <t>Omiishosh Memorial School</t>
   </si>
   <si>
-    <t>n-9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Peguis First Nation </t>
   </si>
   <si>
     <t xml:space="preserve">Peguis Central School </t>
   </si>
   <si>
-    <t>n-12</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pinaymootang First Nation </t>
   </si>
   <si>
@@ -323,9 +299,6 @@
     <t xml:space="preserve">Sagkeeng Anicinabe Community School </t>
   </si>
   <si>
-    <t>n-4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sagkeeng Anicinabe High School </t>
   </si>
   <si>
@@ -374,9 +347,6 @@
     <t xml:space="preserve">St. Theresa Point Elementary School </t>
   </si>
   <si>
-    <t>n-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">St. Theresa Point High School </t>
   </si>
   <si>
@@ -426,6 +396,39 @@
   </si>
   <si>
     <t xml:space="preserve">George Saunders Memorial School </t>
+  </si>
+  <si>
+    <t>data year</t>
+  </si>
+  <si>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>2016-17</t>
+  </si>
+  <si>
+    <t>2014-15</t>
+  </si>
+  <si>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>N-7</t>
+  </si>
+  <si>
+    <t>N-8</t>
+  </si>
+  <si>
+    <t>N-4</t>
+  </si>
+  <si>
+    <t>N-3</t>
+  </si>
+  <si>
+    <t>K-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O-Chi-ChaK-Ko-Sipi First Nation (Crane River) </t>
   </si>
 </sst>
 </file>
@@ -479,16 +482,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -805,23 +807,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70041CD9-3ACF-2547-A224-AF3CEFBB2D1C}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="50" style="6" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="20.1640625" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="21">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -837,8 +838,11 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18">
+      <c r="F1" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,954 +852,1125 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>9</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18">
+      <c r="F2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>8</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="18">
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>13</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18">
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6">
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="6">
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9">
+        <v>70</v>
+      </c>
+      <c r="E9">
+        <v>160</v>
+      </c>
+      <c r="F9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>119</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="18">
-      <c r="A6" s="1" t="s">
+      <c r="D25">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18">
+      <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18">
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>8.75</v>
+      </c>
+      <c r="E27">
+        <v>23.75</v>
+      </c>
+      <c r="F27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28">
+        <v>33</v>
+      </c>
+      <c r="E28">
+        <v>96.5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18">
+      <c r="A29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18">
+      <c r="A30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18">
+      <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31">
+        <v>31</v>
+      </c>
+      <c r="E31">
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18">
+      <c r="A32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>27</v>
+      </c>
+      <c r="E32">
+        <v>40</v>
+      </c>
+      <c r="F32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34">
+        <v>58</v>
+      </c>
+      <c r="E34">
+        <v>119</v>
+      </c>
+      <c r="F34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <v>79</v>
+      </c>
+      <c r="F35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18">
+      <c r="A36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="E37">
+        <v>50</v>
+      </c>
+      <c r="F37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18">
+      <c r="A38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18">
+      <c r="A39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18">
+      <c r="A40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="E40">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18">
+      <c r="A41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18">
+      <c r="A42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42">
+        <v>13</v>
+      </c>
+      <c r="E42">
+        <v>39</v>
+      </c>
+      <c r="F42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18">
+      <c r="A43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>45</v>
+      </c>
+      <c r="E43">
+        <v>95</v>
+      </c>
+      <c r="F43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18">
+      <c r="A44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>22.5</v>
+      </c>
+      <c r="E44">
+        <v>46</v>
+      </c>
+      <c r="F44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18">
+      <c r="A45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18">
+      <c r="A46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>18</v>
+      </c>
+      <c r="E46">
+        <v>57</v>
+      </c>
+      <c r="F46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18">
+      <c r="A47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <v>40</v>
+      </c>
+      <c r="F47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18">
+      <c r="A48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48">
+        <v>10.5</v>
+      </c>
+      <c r="E48">
+        <v>34</v>
+      </c>
+      <c r="F48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18">
+      <c r="A49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49">
+        <v>19</v>
+      </c>
+      <c r="E49">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18">
+      <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50">
+        <v>18</v>
+      </c>
+      <c r="E50">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18">
+      <c r="A51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51">
         <v>17</v>
       </c>
-      <c r="D6" s="6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="E51">
+        <v>48</v>
+      </c>
+      <c r="F51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18">
+      <c r="A52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <v>70</v>
+      </c>
+      <c r="F52" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18">
+      <c r="A53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18">
+      <c r="A54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="D54">
+        <v>39</v>
+      </c>
+      <c r="E54">
+        <v>84</v>
+      </c>
+      <c r="F54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18">
+      <c r="A55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18">
+      <c r="A56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56">
         <v>30</v>
       </c>
-      <c r="E7" s="6">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6">
-        <v>26</v>
-      </c>
-      <c r="E8" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="6">
-        <v>70</v>
-      </c>
-      <c r="E9" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="E56">
+        <v>75</v>
+      </c>
+      <c r="F56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18">
+      <c r="A57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18">
+      <c r="A58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58">
         <v>30</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="6">
-        <v>37</v>
-      </c>
-      <c r="E11" s="6">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="6">
-        <v>17</v>
-      </c>
-      <c r="E12" s="6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6">
-        <v>15</v>
-      </c>
-      <c r="E13" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="6">
-        <v>3</v>
-      </c>
-      <c r="E14" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="6">
-        <v>25</v>
-      </c>
-      <c r="E15" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="6">
-        <v>30</v>
-      </c>
-      <c r="E16" s="6">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6">
-        <v>18</v>
-      </c>
-      <c r="E17" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18">
-      <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="6">
-        <v>6</v>
-      </c>
-      <c r="E18" s="6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18">
-      <c r="A19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="6">
-        <v>4</v>
-      </c>
-      <c r="E19" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="6">
-        <v>19</v>
-      </c>
-      <c r="E20" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18">
-      <c r="A21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="6">
-        <v>5</v>
-      </c>
-      <c r="E21" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18">
-      <c r="A22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="6">
-        <v>10</v>
-      </c>
-      <c r="E22" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18">
-      <c r="A23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="6">
-        <v>6</v>
-      </c>
-      <c r="E23" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="18">
-      <c r="A24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="6">
-        <v>10</v>
-      </c>
-      <c r="E24" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="18">
-      <c r="A25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="6">
-        <v>13</v>
-      </c>
-      <c r="E25" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18">
-      <c r="A26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="6">
-        <v>25</v>
-      </c>
-      <c r="E26" s="6">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18">
-      <c r="A27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E27" s="6">
-        <v>23.75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18">
-      <c r="A28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="6">
-        <v>33</v>
-      </c>
-      <c r="E28" s="6">
-        <v>96.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="18">
-      <c r="A29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="6">
-        <v>14</v>
-      </c>
-      <c r="E29" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18">
-      <c r="A30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="6">
-        <v>7</v>
-      </c>
-      <c r="E30" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18">
-      <c r="A31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="6">
-        <v>31</v>
-      </c>
-      <c r="E31" s="6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="18">
-      <c r="A32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="6">
-        <v>27</v>
-      </c>
-      <c r="E32" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18">
-      <c r="A33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="6">
-        <v>8</v>
-      </c>
-      <c r="E33" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18">
-      <c r="A34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="6">
-        <v>58</v>
-      </c>
-      <c r="E34" s="6">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="18">
-      <c r="A35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="6">
-        <v>24</v>
-      </c>
-      <c r="E35" s="6">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18">
-      <c r="A36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="6">
-        <v>17</v>
-      </c>
-      <c r="E36" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18">
-      <c r="A37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="6">
-        <v>15</v>
-      </c>
-      <c r="E37" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="18">
-      <c r="A38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="18">
-      <c r="A39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="6">
-        <v>7</v>
-      </c>
-      <c r="E39" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="18">
-      <c r="A40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="6">
-        <v>16</v>
-      </c>
-      <c r="E40" s="6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="18">
-      <c r="A41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="6">
-        <v>12</v>
-      </c>
-      <c r="E41" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="18">
-      <c r="A42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="6">
-        <v>13</v>
-      </c>
-      <c r="E42" s="6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="18">
-      <c r="A43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="6">
-        <v>45</v>
-      </c>
-      <c r="E43" s="6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="18">
-      <c r="A44" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="6">
-        <v>22.5</v>
-      </c>
-      <c r="E44" s="6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="18">
-      <c r="A45" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="6">
-        <v>6</v>
-      </c>
-      <c r="E45" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="18">
-      <c r="A46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="6">
-        <v>18</v>
-      </c>
-      <c r="E46" s="6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="18">
-      <c r="A47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="6">
-        <v>14</v>
-      </c>
-      <c r="E47" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="18">
-      <c r="A48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="6">
-        <v>10.5</v>
-      </c>
-      <c r="E48" s="6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="18">
-      <c r="A49" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="6">
-        <v>19</v>
-      </c>
-      <c r="E49" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="18">
-      <c r="A50" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="6">
-        <v>18</v>
-      </c>
-      <c r="E50" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="18">
-      <c r="A51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="6">
-        <v>17</v>
-      </c>
-      <c r="E51" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="18">
-      <c r="A52" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="6">
-        <v>12</v>
-      </c>
-      <c r="E52" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="18">
-      <c r="A53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="6">
-        <v>5</v>
-      </c>
-      <c r="E53" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="18">
-      <c r="A54" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" s="6">
-        <v>39</v>
-      </c>
-      <c r="E54" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="18">
-      <c r="A55" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="6">
-        <v>5</v>
-      </c>
-      <c r="E55" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="18">
-      <c r="A56" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="6">
-        <v>30</v>
-      </c>
-      <c r="E56" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="18">
-      <c r="A57" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="6">
-        <v>3</v>
-      </c>
-      <c r="E57" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="18">
-      <c r="A58" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="6">
-        <v>7</v>
-      </c>
-      <c r="E58" s="6">
-        <v>30</v>
+      <c r="F58" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1804,6 +1979,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="bfb77542-f000-416e-9391-d4f3ed66f756" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2b313e45-d48c-4d36-b475-2ce2b8c74c54">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0E76F91975C3B469A9C9E5B90195820" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3d044a0b9c54eefe6672bdcd1de2a28d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2b313e45-d48c-4d36-b475-2ce2b8c74c54" xmlns:ns3="bfb77542-f000-416e-9391-d4f3ed66f756" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d9534cf13e5bbdf06d33948ab5fbaa0" ns2:_="" ns3:_="">
     <xsd:import namespace="2b313e45-d48c-4d36-b475-2ce2b8c74c54"/>
@@ -2046,34 +2241,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="bfb77542-f000-416e-9391-d4f3ed66f756" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2b313e45-d48c-4d36-b475-2ce2b8c74c54">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CDEF00C-68EE-4DFB-827D-4BB8BF67C31E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{974CE857-1E37-4C79-A8E0-775475CB6A6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="2b313e45-d48c-4d36-b475-2ce2b8c74c54"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="bfb77542-f000-416e-9391-d4f3ed66f756"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0318660-591E-4D5E-94BE-B0C55936A47E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0318660-591E-4D5E-94BE-B0C55936A47E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{974CE857-1E37-4C79-A8E0-775475CB6A6D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CDEF00C-68EE-4DFB-827D-4BB8BF67C31E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2b313e45-d48c-4d36-b475-2ce2b8c74c54"/>
+    <ds:schemaRef ds:uri="bfb77542-f000-416e-9391-d4f3ed66f756"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>